--- a/JavaGold/Document/practice.xlsx
+++ b/JavaGold/Document/practice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\JavaGold対策\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\GitHub\learning\JavaGold\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3813B209-973E-4683-976A-B748105DDA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7FC3B-BF2A-40FD-B40B-AB227A6F2C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="0" windowWidth="21600" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15105" yWindow="0" windowWidth="13800" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="74">
   <si>
     <t>章</t>
     <rPh sb="0" eb="1">
@@ -760,6 +760,230 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orElseGetメソッドはOptionalインスタンスが空であれば引数の値を返す</t>
+    <rPh sb="29" eb="30">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orElseThrowメソッドはOptionalインスタンスが空であれば例外をスローする</t>
+    <rPh sb="31" eb="32">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapメソッドはFunction型の引数で、新しいOptionalのインスタンスを返す</t>
+    <rPh sb="16" eb="17">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forEachメソッドでfor文を簡潔に書き直せる</t>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Optionalの入れ子を防ぐにはflatmapメソッド</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parallelStream メソッド　で並列ストリームを扱う</t>
+    <rPh sb="21" eb="23">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リダクション：一連の要素を一つにまとめる</t>
+    <rPh sb="7" eb="9">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollectorsクラスのgroupingByメソッドでコレクションを分割できる</t>
+    <rPh sb="36" eb="38">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Collectorsクラスのsumming</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数値型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メソッドでグループ内の合計数値を取得できる</t>
+    </r>
+    <rPh sb="21" eb="24">
+      <t>スウチガタ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ゴウケイスウチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listFilesメソッド：一覧をFileで返す
+listメソッド：一覧を文字列で返す</t>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ストリームは不要になったら必ず閉じる</t>
+    <rPh sb="13" eb="15">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newLineメソッド　改行</t>
+    <rPh sb="12" eb="14">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>readPasswprdメソッドは入力内容を表示せずに受け取りChar型を返す</t>
+    <rPh sb="17" eb="21">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,15 +1129,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3867682</xdr:colOff>
+      <xdr:colOff>3858157</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2086321</xdr:rowOff>
+      <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -936,8 +1160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="5086350"/>
-          <a:ext cx="3810532" cy="2000596"/>
+          <a:off x="2352675" y="5038724"/>
+          <a:ext cx="3810532" cy="2057401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,6 +1206,358 @@
         <a:xfrm>
           <a:off x="1685925" y="14420850"/>
           <a:ext cx="3791479" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4315419</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1657577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896EA5F0-E60A-C432-49AB-9FE505715B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="16221075"/>
+          <a:ext cx="4258269" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2736437</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1943100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0282F3A-4D4C-3FE4-C804-665B19B5E4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343151" y="19850100"/>
+          <a:ext cx="2698336" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2676524</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5228578</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2419350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF712E7-780B-BB1E-2FCD-D2891A81BF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981574" y="19831050"/>
+          <a:ext cx="2552054" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4353517</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2057679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE9DE25-F8A8-2632-1920-70A31252BCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="22440900"/>
+          <a:ext cx="4239217" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2991261</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>781150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1597E7-78FF-2CCB-C48B-B5AA48AAEBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="29356050"/>
+          <a:ext cx="2943636" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2686420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>1505043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83DA084-F0E1-4E95-9627-615E1F8229A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="30127575"/>
+          <a:ext cx="2648320" cy="666843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4372572</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1943347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F9C5CC-397F-2CC6-3EE7-ED7B757B1372}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="34223325"/>
+          <a:ext cx="4277322" cy="1771897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4334473</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>1514660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D29789-DAC4-0CF1-9C81-AB861FFF2C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="36623625"/>
+          <a:ext cx="4286848" cy="1324160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1258,12 +1834,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
+    <col min="2" max="3" width="9" style="4"/>
     <col min="4" max="7" width="9" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="4" customWidth="1"/>
     <col min="9" max="9" width="68.75" customWidth="1"/>
@@ -1287,7 +1868,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1316,7 +1897,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1337,7 +1918,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1358,7 +1939,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1379,7 +1960,7 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1400,7 +1981,7 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1419,7 +2000,7 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1440,7 +2021,7 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1461,7 +2042,7 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1482,7 +2063,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1501,7 +2082,7 @@
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1522,7 +2103,7 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1543,7 +2124,7 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1564,7 +2145,7 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1583,7 +2164,7 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1604,7 +2185,7 @@
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1625,7 +2206,7 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1646,7 +2227,7 @@
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1667,7 +2248,7 @@
       <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1688,7 +2269,7 @@
       <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1709,7 +2290,7 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1728,7 +2309,7 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1749,7 +2330,7 @@
       <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1770,7 +2351,7 @@
       <c r="A26" s="1">
         <v>2</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1789,7 +2370,7 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>8</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1810,7 +2391,7 @@
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1831,7 +2412,7 @@
       <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1852,7 +2433,7 @@
       <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="7">
         <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1873,7 +2454,7 @@
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="7">
         <v>12</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -1894,7 +2475,7 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="7">
         <v>13</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -1913,7 +2494,7 @@
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="7">
         <v>14</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1934,7 +2515,7 @@
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -1955,7 +2536,7 @@
       <c r="A35" s="1">
         <v>3</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="7">
         <v>2</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1976,7 +2557,7 @@
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="7">
         <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -1997,7 +2578,7 @@
       <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="7">
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -2018,7 +2599,7 @@
       <c r="A38" s="1">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="7">
         <v>5</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2039,7 +2620,7 @@
       <c r="A39" s="1">
         <v>3</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="7">
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2060,7 +2641,7 @@
       <c r="A40" s="1">
         <v>3</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="7">
         <v>7</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -2079,7 +2660,7 @@
       <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -2100,7 +2681,7 @@
       <c r="A42" s="1">
         <v>3</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="7">
         <v>9</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -2119,7 +2700,7 @@
       <c r="A43" s="1">
         <v>3</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="7">
         <v>10</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2140,7 +2721,7 @@
       <c r="A44" s="1">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="7">
         <v>11</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2159,7 +2740,7 @@
       <c r="A45" s="1">
         <v>3</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="7">
         <v>12</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2180,7 +2761,7 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="7">
         <v>13</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2201,7 +2782,7 @@
       <c r="A47" s="1">
         <v>3</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
         <v>14</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2222,7 +2803,7 @@
       <c r="A48" s="1">
         <v>3</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="7">
         <v>15</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2243,7 +2824,7 @@
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="7">
         <v>16</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2264,7 +2845,7 @@
       <c r="A50" s="1">
         <v>3</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="7">
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -2279,515 +2860,919 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="7"/>
+    <row r="51" spans="1:9" ht="131.25">
+      <c r="A51" s="1">
+        <v>4</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="1">
+        <v>4</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="7">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="1">
+        <v>4</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+      <c r="B57" s="7">
+        <v>7</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="7">
+        <v>9</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="206.25">
+      <c r="A60" s="1">
+        <v>4</v>
+      </c>
+      <c r="B60" s="7">
+        <v>10</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="168.75">
+      <c r="A61" s="1">
+        <v>4</v>
+      </c>
+      <c r="B61" s="7">
+        <v>11</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="7"/>
+      <c r="A62" s="1">
+        <v>4</v>
+      </c>
+      <c r="B62" s="7">
+        <v>12</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="1">
+        <v>4</v>
+      </c>
+      <c r="B63" s="7">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="7"/>
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64" s="7">
+        <v>14</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="1">
+        <v>4</v>
+      </c>
+      <c r="B65" s="7">
+        <v>15</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="7"/>
+      <c r="A66" s="1">
+        <v>4</v>
+      </c>
+      <c r="B66" s="7">
+        <v>16</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="1">
+        <v>4</v>
+      </c>
+      <c r="B67" s="7">
+        <v>17</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="7"/>
+      <c r="A68" s="1">
+        <v>4</v>
+      </c>
+      <c r="B68" s="7">
+        <v>18</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="1">
+        <v>4</v>
+      </c>
+      <c r="B69" s="7">
+        <v>19</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="7"/>
+      <c r="A70" s="1">
+        <v>4</v>
+      </c>
+      <c r="B70" s="7">
+        <v>20</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="1">
+        <v>4</v>
+      </c>
+      <c r="B71" s="7">
+        <v>21</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="7"/>
+      <c r="A72" s="1">
+        <v>4</v>
+      </c>
+      <c r="B72" s="7">
+        <v>22</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="1">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>23</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="7"/>
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+      <c r="B74" s="7">
+        <v>24</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="7">
+        <v>25</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="7"/>
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="B76" s="7">
+        <v>26</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="7">
+        <v>27</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="7"/>
+      <c r="A78" s="1">
+        <v>4</v>
+      </c>
+      <c r="B78" s="7">
+        <v>28</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="1">
+        <v>5</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="7"/>
+    <row r="80" spans="1:9" ht="37.5">
+      <c r="A80" s="1">
+        <v>5</v>
+      </c>
+      <c r="B80" s="7">
+        <v>2</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="150">
+      <c r="A81" s="1">
+        <v>5</v>
+      </c>
+      <c r="B81" s="7">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="7"/>
+      <c r="A82" s="1">
+        <v>5</v>
+      </c>
+      <c r="B82" s="7">
+        <v>4</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="1">
+        <v>5</v>
+      </c>
+      <c r="B83" s="7">
+        <v>5</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="1">
+        <v>5</v>
+      </c>
+      <c r="B84" s="7">
+        <v>6</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="1"/>
+      <c r="H84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="1">
+        <v>5</v>
+      </c>
+      <c r="B85" s="7">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="7"/>
+      <c r="A86" s="1">
+        <v>5</v>
+      </c>
+      <c r="B86" s="7">
+        <v>8</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="1">
+        <v>5</v>
+      </c>
+      <c r="B87" s="7">
+        <v>9</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="7"/>
+      <c r="A88" s="1">
+        <v>5</v>
+      </c>
+      <c r="B88" s="7">
+        <v>10</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="1">
+        <v>5</v>
+      </c>
+      <c r="B89" s="7">
+        <v>11</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="7"/>
+      <c r="A90" s="1">
+        <v>5</v>
+      </c>
+      <c r="B90" s="7">
+        <v>12</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="1">
+        <v>5</v>
+      </c>
+      <c r="B91" s="7">
+        <v>13</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+      <c r="H91" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="7"/>
+      <c r="A92" s="1">
+        <v>5</v>
+      </c>
+      <c r="B92" s="7">
+        <v>14</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="H92" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="1">
+        <v>5</v>
+      </c>
+      <c r="B93" s="7">
+        <v>15</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="7"/>
+    <row r="94" spans="1:9" ht="168.75">
+      <c r="A94" s="1">
+        <v>5</v>
+      </c>
+      <c r="B94" s="7">
+        <v>16</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="1">
+        <v>5</v>
+      </c>
+      <c r="B95" s="7">
+        <v>17</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="7"/>
+    <row r="96" spans="1:9" ht="150">
+      <c r="A96" s="1">
+        <v>5</v>
+      </c>
+      <c r="B96" s="7">
+        <v>18</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -2798,7 +3783,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -2809,7 +3794,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -2820,7 +3805,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -2831,7 +3816,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -2842,7 +3827,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -2853,7 +3838,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -2864,7 +3849,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -2875,7 +3860,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -2886,7 +3871,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -2897,7 +3882,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -2908,7 +3893,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -2919,7 +3904,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -2930,7 +3915,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -2941,7 +3926,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -2952,7 +3937,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -2963,7 +3948,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -2974,7 +3959,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2985,7 +3970,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -2996,7 +3981,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -3007,7 +3992,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -3018,7 +4003,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -3029,7 +4014,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -3040,7 +4025,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -3051,7 +4036,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -3062,7 +4047,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -3073,7 +4058,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -3084,7 +4069,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -3095,7 +4080,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -3106,7 +4091,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -3117,7 +4102,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -3128,7 +4113,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -3139,7 +4124,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -3150,7 +4135,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -3161,7 +4146,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -3172,7 +4157,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -3183,7 +4168,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -3194,7 +4179,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -3205,7 +4190,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -3216,7 +4201,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -3227,7 +4212,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -3238,7 +4223,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -3249,7 +4234,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -3260,7 +4245,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -3271,7 +4256,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -3282,7 +4267,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -3293,7 +4278,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -3304,7 +4289,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -3315,7 +4300,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -3326,7 +4311,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -3337,7 +4322,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -3348,7 +4333,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -3359,7 +4344,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -3370,7 +4355,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -3381,7 +4366,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -3392,7 +4377,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -3403,7 +4388,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -3414,7 +4399,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -3425,7 +4410,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -3436,7 +4421,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -3447,7 +4432,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -3458,7 +4443,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -3469,7 +4454,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -3480,7 +4465,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -3491,7 +4476,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -3502,7 +4487,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -3513,7 +4498,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -3524,7 +4509,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -3535,7 +4520,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -3546,7 +4531,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -3557,7 +4542,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -3568,7 +4553,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -3579,7 +4564,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -3590,7 +4575,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -3601,7 +4586,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -3612,7 +4597,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -3623,7 +4608,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -3634,7 +4619,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -3645,7 +4630,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -3656,7 +4641,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -3667,7 +4652,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -3678,7 +4663,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -3689,7 +4674,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -3700,7 +4685,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -3711,7 +4696,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -3722,7 +4707,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -3733,7 +4718,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -3744,7 +4729,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -3755,7 +4740,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -3766,7 +4751,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -3777,7 +4762,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -3788,7 +4773,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -3799,7 +4784,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -3810,7 +4795,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -3821,7 +4806,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -3832,7 +4817,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -3843,7 +4828,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -3854,7 +4839,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -3865,7 +4850,7 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -3876,7 +4861,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -3887,7 +4872,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
